--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.employee.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.employee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EDB8C0-4950-9443-B134-E41C996C2319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CE5FE9-F012-8241-9EC7-47EE380DF0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41140" yWindow="-2200" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="-43080" yWindow="-2520" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-WHO" sheetId="1" r:id="rId1"/>
@@ -165,9 +165,6 @@
     <t>ADMIN.SUPER</t>
   </si>
   <si>
-    <t>虞浪</t>
-  </si>
-  <si>
     <t>app.micro.hotel</t>
   </si>
   <si>
@@ -313,17 +310,20 @@
   <si>
     <t>所在团队</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零の</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -331,20 +331,20 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -352,7 +352,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -361,7 +361,7 @@
       <u/>
       <sz val="16"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -369,7 +369,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -487,7 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -495,19 +495,15 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -520,7 +516,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -529,34 +525,25 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -569,15 +556,15 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -587,7 +574,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -907,60 +894,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE8EFB5-630A-0B48-8E56-AEAA85248043}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="96.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="54.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="55.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="96.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="54.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1">
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:12" s="10" customFormat="1">
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="1:12">
+    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -980,89 +963,85 @@
         <v>33</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="I4" s="10"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="11" t="s">
+      <c r="I4" s="8"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="I5" s="10"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="13" t="str">
+      <c r="I5" s="8"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="11" t="str">
         <f>A12</f>
         <v>f7fbfaf9-8319-4eb0-9ee7-1948b8b56a67</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="9"/>
-      <c r="I6" s="10"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" s="10" customFormat="1">
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:12" s="10" customFormat="1">
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="D6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="I6" s="8"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="C9" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
@@ -1085,92 +1064,89 @@
         <v>12</v>
       </c>
       <c r="H10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="I12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="C15" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -1183,167 +1159,164 @@
       <c r="D16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="11" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="H16" s="8"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="27" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="H17" s="8"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="14" t="b">
+      <c r="D18" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="H18" s="8"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="29" t="s">
+      <c r="B24" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="C24" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="D24" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="E24" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="29" t="s">
+      <c r="G24" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="H24" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="I24" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="J24" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="J24" s="29" t="s">
+      <c r="K24" s="5"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="10"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="11" t="s">
+      <c r="C25" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="D25" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="E25" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="11" t="s">
+      <c r="G25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="H25" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="I25" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="J25" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="K25" s="5"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="10"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="17" t="s">
+      <c r="G26" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="H26" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="I26" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="I26" s="32" t="s">
+      <c r="J26" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J26" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="10"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="8"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:D18">
